--- a/Offline/BusinessManagement/Accounts/TeacherFees_Expenditure/Faculty-Payout-2023-24.xlsx
+++ b/Offline/BusinessManagement/Accounts/TeacherFees_Expenditure/Faculty-Payout-2023-24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\Information\Anodiam-Info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\Accounts\TeacherFees_Expenditure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE71DA30-17D6-4DC0-8D81-DBFF73B8E81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5934F33-7E6A-4653-A5DB-2911096D7293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
